--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H2">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.72936440575619</v>
+        <v>1.242496666666667</v>
       </c>
       <c r="N2">
-        <v>1.72936440575619</v>
+        <v>3.72749</v>
       </c>
       <c r="O2">
-        <v>0.6948311874221474</v>
+        <v>0.3272238221337332</v>
       </c>
       <c r="P2">
-        <v>0.6948311874221474</v>
+        <v>0.3272238221337332</v>
       </c>
       <c r="Q2">
-        <v>1.912211014570436</v>
+        <v>6.531263662285555</v>
       </c>
       <c r="R2">
-        <v>1.912211014570436</v>
+        <v>58.78137296057</v>
       </c>
       <c r="S2">
-        <v>0.000557308024615088</v>
+        <v>0.001226389048014498</v>
       </c>
       <c r="T2">
-        <v>0.000557308024615088</v>
+        <v>0.001226389048014498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H3">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.759534246263452</v>
+        <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>0.759534246263452</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.3051688125778526</v>
+        <v>0.459408730644692</v>
       </c>
       <c r="P3">
-        <v>0.3051688125778526</v>
+        <v>0.459408730644692</v>
       </c>
       <c r="Q3">
-        <v>0.8398402018765663</v>
+        <v>9.169624414967334</v>
       </c>
       <c r="R3">
-        <v>0.8398402018765663</v>
+        <v>82.52661973470602</v>
       </c>
       <c r="S3">
-        <v>0.0002447688462903818</v>
+        <v>0.001721799568720369</v>
       </c>
       <c r="T3">
-        <v>0.0002447688462903818</v>
+        <v>0.001721799568720369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1308.15334255235</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H4">
-        <v>1308.15334255235</v>
+        <v>15.769693</v>
       </c>
       <c r="I4">
-        <v>0.9489107107804025</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J4">
-        <v>0.9489107107804025</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.72936440575619</v>
+        <v>0.8101743333333333</v>
       </c>
       <c r="N4">
-        <v>1.72936440575619</v>
+        <v>2.430523</v>
       </c>
       <c r="O4">
-        <v>0.6948311874221474</v>
+        <v>0.2133674472215748</v>
       </c>
       <c r="P4">
-        <v>0.6948311874221474</v>
+        <v>0.2133674472215748</v>
       </c>
       <c r="Q4">
-        <v>2262.273827881019</v>
+        <v>4.258733504382112</v>
       </c>
       <c r="R4">
-        <v>2262.273827881019</v>
+        <v>38.328601539439</v>
       </c>
       <c r="S4">
-        <v>0.659332755929141</v>
+        <v>0.0007996713037854807</v>
       </c>
       <c r="T4">
-        <v>0.659332755929141</v>
+        <v>0.0007996713037854804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H5">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J5">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.759534246263452</v>
+        <v>1.242496666666667</v>
       </c>
       <c r="N5">
-        <v>0.759534246263452</v>
+        <v>3.72749</v>
       </c>
       <c r="O5">
-        <v>0.3051688125778526</v>
+        <v>0.3272238221337332</v>
       </c>
       <c r="P5">
-        <v>0.3051688125778526</v>
+        <v>0.3272238221337332</v>
       </c>
       <c r="Q5">
-        <v>993.5872630325146</v>
+        <v>1631.029661775164</v>
       </c>
       <c r="R5">
-        <v>993.5872630325146</v>
+        <v>14679.26695597648</v>
       </c>
       <c r="S5">
-        <v>0.2895779548512615</v>
+        <v>0.3062618533896201</v>
       </c>
       <c r="T5">
-        <v>0.2895779548512615</v>
+        <v>0.30626185338962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.3251579671598</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H6">
-        <v>69.3251579671598</v>
+        <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.05028721234869202</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J6">
-        <v>0.05028721234869202</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.72936440575619</v>
+        <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>1.72936440575619</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.6948311874221474</v>
+        <v>0.459408730644692</v>
       </c>
       <c r="P6">
-        <v>0.6948311874221474</v>
+        <v>0.459408730644692</v>
       </c>
       <c r="Q6">
-        <v>119.8884606118313</v>
+        <v>2289.898277191243</v>
       </c>
       <c r="R6">
-        <v>119.8884606118313</v>
+        <v>20609.08449472118</v>
       </c>
       <c r="S6">
-        <v>0.03494112346839136</v>
+        <v>0.4299789923397253</v>
       </c>
       <c r="T6">
-        <v>0.03494112346839136</v>
+        <v>0.4299789923397252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.3251579671598</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H7">
-        <v>69.3251579671598</v>
+        <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.05028721234869202</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J7">
-        <v>0.05028721234869202</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.759534246263452</v>
+        <v>0.8101743333333333</v>
       </c>
       <c r="N7">
-        <v>0.759534246263452</v>
+        <v>2.430523</v>
       </c>
       <c r="O7">
-        <v>0.3051688125778526</v>
+        <v>0.2133674472215748</v>
       </c>
       <c r="P7">
-        <v>0.3051688125778526</v>
+        <v>0.2133674472215748</v>
       </c>
       <c r="Q7">
-        <v>52.65483160368146</v>
+        <v>1063.518643008233</v>
       </c>
       <c r="R7">
-        <v>52.65483160368146</v>
+        <v>9571.667787074095</v>
       </c>
       <c r="S7">
-        <v>0.01534608888030067</v>
+        <v>0.1996991215767446</v>
       </c>
       <c r="T7">
-        <v>0.01534608888030067</v>
+        <v>0.1996991215767445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>84.59089266666666</v>
+      </c>
+      <c r="H8">
+        <v>253.772678</v>
+      </c>
+      <c r="I8">
+        <v>0.06031217277338979</v>
+      </c>
+      <c r="J8">
+        <v>0.06031217277338978</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.242496666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.72749</v>
+      </c>
+      <c r="O8">
+        <v>0.3272238221337332</v>
+      </c>
+      <c r="P8">
+        <v>0.3272238221337332</v>
+      </c>
+      <c r="Q8">
+        <v>105.1039021686911</v>
+      </c>
+      <c r="R8">
+        <v>945.9351195182199</v>
+      </c>
+      <c r="S8">
+        <v>0.01973557969609869</v>
+      </c>
+      <c r="T8">
+        <v>0.01973557969609869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>84.59089266666666</v>
+      </c>
+      <c r="H9">
+        <v>253.772678</v>
+      </c>
+      <c r="I9">
+        <v>0.06031217277338979</v>
+      </c>
+      <c r="J9">
+        <v>0.06031217277338978</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.744414</v>
+      </c>
+      <c r="N9">
+        <v>5.233242000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.459408730644692</v>
+      </c>
+      <c r="P9">
+        <v>0.459408730644692</v>
+      </c>
+      <c r="Q9">
+        <v>147.5615374402307</v>
+      </c>
+      <c r="R9">
+        <v>1328.053836962076</v>
+      </c>
+      <c r="S9">
+        <v>0.02770793873624636</v>
+      </c>
+      <c r="T9">
+        <v>0.02770793873624635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>84.59089266666666</v>
+      </c>
+      <c r="H10">
+        <v>253.772678</v>
+      </c>
+      <c r="I10">
+        <v>0.06031217277338979</v>
+      </c>
+      <c r="J10">
+        <v>0.06031217277338978</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8101743333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.430523</v>
+      </c>
+      <c r="O10">
+        <v>0.2133674472215748</v>
+      </c>
+      <c r="P10">
+        <v>0.2133674472215748</v>
+      </c>
+      <c r="Q10">
+        <v>68.53337007228822</v>
+      </c>
+      <c r="R10">
+        <v>616.800330650594</v>
+      </c>
+      <c r="S10">
+        <v>0.01286865434104475</v>
+      </c>
+      <c r="T10">
+        <v>0.01286865434104474</v>
       </c>
     </row>
   </sheetData>
